--- a/TAS Level codes.xlsx
+++ b/TAS Level codes.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Or\Videos\Speedruns\Hasty Shaman\Hasty Shaman Autosplitter-TAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41BE47-2FFE-4AF2-907B-43F52691A518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1920" yWindow="3915" windowWidth="22140" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,13 +24,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>+ACAtCAAgMA5wAkADQCMABxAkADQQMAJwAkEDQSMAhwAkADQQMAJwAkCDQQMAJwAkFDQCMAZx'AEGDQKMApwAEiAoCMApwAkCDQKMApwAkCDQKMAB</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +354,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TAS Level codes.xlsx
+++ b/TAS Level codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Or\Videos\Speedruns\Hasty Shaman\Hasty Shaman Autosplitter-TAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B41BE47-2FFE-4AF2-907B-43F52691A518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0329CEE2-4F9A-4DEA-9B87-47DB4DED390D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3915" windowWidth="22140" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Level</t>
   </si>
@@ -33,17 +33,50 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>+ACAtCAAgMA5wAkADQCMABxAkADQQMAJwAkEDQSMAhwAkADQQMAJwAkCDQQMAJwAkFDQCMAZx'AEGDQKMApwAEiAoCMApwAkCDQKMApwAkCDQKMAB</t>
+    <t>or321</t>
+  </si>
+  <si>
+    <t>Level code</t>
+  </si>
+  <si>
+    <t>+ACAtCAAgMA5wAkADQCMABxAkADQQMAJwAkEDQSMAhwAkADQQMAJwAkCDQQMAJwAkFDQCMAZxAEGDQKMApwAEiAoCMApwAkCDQKMApwAkCDQKMAB</t>
+  </si>
+  <si>
+    <t>lABAZDAA2MApCGqDDQcMAxxAkGDQCMAxxAkrAoEMAJzAkLDQKMAhwAkADQKMApwAkCDQKC</t>
+  </si>
+  <si>
+    <t>NABAqDAALBAgFIClMRipQSEdhEJuECADQ</t>
+  </si>
+  <si>
+    <t>dABAcFAATBAQFYAyUAUOBAFYA6JAAKADQJCGgQYAqKwAkCDQIMAJwAkCDQtCB</t>
+  </si>
+  <si>
+    <t>RACAcDAAoMAhwAkADQBEGgwYAyTEQOGgcYASEA</t>
+  </si>
+  <si>
+    <t>NACAhCAAEMAhxAUSgBo3QqFcMAKIGEMA</t>
+  </si>
+  <si>
+    <t>fACA8FAAKZUIYEAGgEQAGgGCJWABOIOAwAEh6IQMAhwAkADQeKBDQkMAFVYASQA</t>
+  </si>
+  <si>
+    <t>bABAiEAAfBGgwYASAAUKGgEYAihBo/BDQYCADQEIFDQMMAdFYAShBIHA</t>
+  </si>
+  <si>
+    <t>Total loadless Time:</t>
+  </si>
+  <si>
+    <t>Full game code:</t>
+  </si>
+  <si>
+    <t>Frame length = 1000/60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +84,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -68,13 +134,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,107 +504,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2.87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2.867</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B5" s="3">
+        <v>3.883</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B6" s="3">
+        <v>4.8330000000000002</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B7" s="3">
+        <v>3.633</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B8" s="3">
+        <v>2.633</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B9" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B10" s="3">
+        <v>4.8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B11" s="3"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B12" s="3"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B13" s="3"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="B14" s="3"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="12">
+        <f>SUM(B3:B17)+45</f>
+        <v>77.549000000000007</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="11" t="str">
+        <f>"coffee.loadFullGame(['"&amp;C3&amp;"','"&amp;C4&amp;"','"&amp;C5&amp;"','"&amp;C6&amp;"','"&amp;C7&amp;"','"&amp;C8&amp;"','"&amp;C9&amp;"','"&amp;C10&amp;"','"&amp;C11&amp;"','"&amp;C12&amp;"','"&amp;C13&amp;"','"&amp;C14&amp;"','"&amp;C15&amp;"','"&amp;C16&amp;"','"&amp;C17&amp;"']);"</f>
+        <v>coffee.loadFullGame(['+ACAtCAAgMA5wAkADQCMABxAkADQQMAJwAkEDQSMAhwAkADQQMAJwAkCDQQMAJwAkFDQCMAZxAEGDQKMApwAEiAoCMApwAkCDQKMApwAkCDQKMAB','lABAZDAA2MApCGqDDQcMAxxAkGDQCMAxxAkrAoEMAJzAkLDQKMAhwAkADQKMApwAkCDQKC','NABAqDAALBAgFIClMRipQSEdhEJuECADQ','dABAcFAATBAQFYAyUAUOBAFYA6JAAKADQJCGgQYAqKwAkCDQIMAJwAkCDQtCB','RACAcDAAoMAhwAkADQBEGgwYAyTEQOGgcYASEA','NACAhCAAEMAhxAUSgBo3QqFcMAKIGEMA','fACA8FAAKZUIYEAGgEQAGgGCJWABOIOAwAEh6IQMAhwAkADQeKBDQkMAFVYASQA','bABAiEAAfBGgwYASAAUKGgEYAihBo/BDQYCADQEIFDQMMAdFYAShBIHA','','','','','','','']);</v>
+      </c>
+      <c r="C22" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>